--- a/code/数据库设计/中原剧本.xlsx
+++ b/code/数据库设计/中原剧本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8346F2F0-1FE6-4C8D-9756-6D9D0DEE3274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FC0878-F329-4EA2-8486-988BB814D28E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中原势力" sheetId="3" r:id="rId1"/>
     <sheet name="中原城池" sheetId="2" r:id="rId2"/>
+    <sheet name="中原武将" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">中原城池!$A$1:$J$36</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +322,696 @@
   </si>
   <si>
     <t>孔佑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+  </si>
+  <si>
+    <t>邹靖</t>
+  </si>
+  <si>
+    <t>邹丹</t>
+  </si>
+  <si>
+    <t>朱治</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>周昕</t>
+  </si>
+  <si>
+    <t>周仓</t>
+  </si>
+  <si>
+    <t>钟鳐</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>赵弘</t>
+  </si>
+  <si>
+    <t>赵范</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张允</t>
+  </si>
+  <si>
+    <t>张英</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>张繍</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>张邈</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张济</t>
+  </si>
+  <si>
+    <t>张紘</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张动</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>笮融</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>袁胤</t>
+  </si>
+  <si>
+    <t>袁遗</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>虞翻</t>
+  </si>
+  <si>
+    <t>俞涉</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>伊籍</t>
+  </si>
+  <si>
+    <t>杨怀</t>
+  </si>
+  <si>
+    <t>杨弘</t>
+  </si>
+  <si>
+    <t>杨奉</t>
+  </si>
+  <si>
+    <t>杨丑</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>阎象</t>
+  </si>
+  <si>
+    <t>阎柔</t>
+  </si>
+  <si>
+    <t>阎圃</t>
+  </si>
+  <si>
+    <t>严政</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>严兴</t>
+  </si>
+  <si>
+    <t>严纲</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>荀或</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>许靖</t>
+  </si>
+  <si>
+    <t>许贡</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>盱固</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>向朗</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>夏侯敦</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>武安国</t>
+  </si>
+  <si>
+    <t>吴懿</t>
+  </si>
+  <si>
+    <t>吴巨</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>魏攸</t>
+  </si>
+  <si>
+    <t>魏続</t>
+  </si>
+  <si>
+    <t>王忠</t>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>王威</t>
+  </si>
+  <si>
+    <t>王門</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>王匡</t>
+  </si>
+  <si>
+    <t>田楷</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>田畴</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>孙仲</t>
+  </si>
+  <si>
+    <t>孙乾</t>
+  </si>
+  <si>
+    <t>孙静</t>
+  </si>
+  <si>
+    <t>苏由</t>
+  </si>
+  <si>
+    <t>宋憲</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>麹义</t>
+  </si>
+  <si>
+    <t>桥瑁</t>
+  </si>
+  <si>
+    <t>裴元绍</t>
+  </si>
+  <si>
+    <t>庞羲</t>
+  </si>
+  <si>
+    <t>潘凤</t>
+  </si>
+  <si>
+    <t>牛辅</t>
+  </si>
+  <si>
+    <t>穆顺</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>糜芳</t>
+  </si>
+  <si>
+    <t>毛阶</t>
+  </si>
+  <si>
+    <t>吕翔</t>
+  </si>
+  <si>
+    <t>吕威璜</t>
+  </si>
+  <si>
+    <t>吕旷</t>
+  </si>
+  <si>
+    <t>吕范</t>
+  </si>
+  <si>
+    <t>吕岱</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
+    <t>刘虞</t>
+  </si>
+  <si>
+    <t>刘鳐</t>
+  </si>
+  <si>
+    <t>刘辟</t>
+  </si>
+  <si>
+    <t>刘馈</t>
+  </si>
+  <si>
+    <t>刘度</t>
+  </si>
+  <si>
+    <t>刘动</t>
+  </si>
+  <si>
+    <t>刘岱</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>梁兴</t>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李摧</t>
+  </si>
+  <si>
+    <t>雷薄</t>
+  </si>
+  <si>
+    <t>乐就</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>蒯越</t>
+  </si>
+  <si>
+    <t>蒯良</t>
+  </si>
+  <si>
+    <t>孔柚</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>简雍</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>黄祖</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>华歆</t>
+  </si>
+  <si>
+    <t>胡轸</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>何仪</t>
+  </si>
+  <si>
+    <t>韩忠</t>
+  </si>
+  <si>
+    <t>韩胤</t>
+  </si>
+  <si>
+    <t>韩玄</t>
+  </si>
+  <si>
+    <t>韩暹</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>韩嵩</t>
+  </si>
+  <si>
+    <t>韩浩</t>
+  </si>
+  <si>
+    <t>韩馥</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>郭图</t>
+  </si>
+  <si>
+    <t>郭汜</t>
+  </si>
+  <si>
+    <t>管亥</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>关靖</t>
+  </si>
+  <si>
+    <t>龚都</t>
+  </si>
+  <si>
+    <t>公孙越</t>
+  </si>
+  <si>
+    <t>公孙范</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>高升</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>高干</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>傅巽</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>方悦</t>
+  </si>
+  <si>
+    <t>樊稠</t>
+  </si>
+  <si>
+    <t>董昭</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>董旻</t>
+  </si>
+  <si>
+    <t>董和</t>
+  </si>
+  <si>
+    <t>董承</t>
+  </si>
+  <si>
+    <t>丁原</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>邓茂</t>
+  </si>
+  <si>
+    <t>单经</t>
+  </si>
+  <si>
+    <t>崔琰</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>程银</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>成宜</t>
+  </si>
+  <si>
+    <t>陈群</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>陈兰</t>
+  </si>
+  <si>
+    <t>陈纪</t>
+  </si>
+  <si>
+    <t>陈横</t>
+  </si>
+  <si>
+    <t>陈珪</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>车胄</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>曹豹</t>
+  </si>
+  <si>
+    <t>蔡中</t>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+  </si>
+  <si>
+    <t>蔡和</t>
+  </si>
+  <si>
+    <t>卞喜</t>
+  </si>
+  <si>
+    <t>鲍信</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personTrick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personPolitics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personMilitary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCommand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personBirthYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +1019,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +1044,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -396,9 +1097,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2191,4 +2896,6700 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5109D5-EC72-404A-B13C-855F4594F600}">
+  <dimension ref="A1:K215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2">
+        <v>155</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3">
+        <v>161</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4">
+        <v>155</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8">
+        <v>153</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>152</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12">
+        <v>169</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13">
+        <v>166</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14">
+        <v>155</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15">
+        <v>168</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18">
+        <v>168</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>163</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20">
+        <v>164</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21">
+        <v>169</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22">
+        <v>154</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25">
+        <v>165</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27">
+        <v>160</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28">
+        <v>167</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <v>168</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31">
+        <v>169</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32">
+        <v>141</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9</v>
+      </c>
+      <c r="H32" s="3">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33">
+        <v>145</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35">
+        <v>163</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36">
+        <v>156</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="3">
+        <v>7</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38">
+        <v>160</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>7</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>7</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40">
+        <v>154</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="2">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>7</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42">
+        <v>149</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43">
+        <v>169</v>
+      </c>
+      <c r="D43" s="2">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>7</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>156</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45">
+        <v>153</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46">
+        <v>153</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>7</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47">
+        <v>153</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48">
+        <v>162</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49">
+        <v>163</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50">
+        <v>168</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2">
+        <v>6</v>
+      </c>
+      <c r="H50" s="3">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51">
+        <v>159</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52">
+        <v>145</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <v>158</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3">
+        <v>7</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54">
+        <v>155</v>
+      </c>
+      <c r="D54" s="2">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55">
+        <v>158</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56">
+        <v>160</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3">
+        <v>7</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57">
+        <v>164</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58">
+        <v>158</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59">
+        <v>162</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>7</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61">
+        <v>146</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2">
+        <v>7</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3">
+        <v>7</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62">
+        <v>155</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63">
+        <v>156</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="3">
+        <v>7</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64">
+        <v>149</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65">
+        <v>164</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3">
+        <v>7</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66">
+        <v>154</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2">
+        <v>7</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7</v>
+      </c>
+      <c r="F67" s="2">
+        <v>7</v>
+      </c>
+      <c r="G67" s="2">
+        <v>7</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68">
+        <v>159</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
+        <v>4</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3">
+        <v>7</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69">
+        <v>163</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>7</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70">
+        <v>155</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3">
+        <v>7</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71">
+        <v>156</v>
+      </c>
+      <c r="D71" s="2">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3">
+        <v>7</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72">
+        <v>161</v>
+      </c>
+      <c r="D72" s="2">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>7</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73">
+        <v>158</v>
+      </c>
+      <c r="D73" s="2">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2">
+        <v>7</v>
+      </c>
+      <c r="F73" s="2">
+        <v>7</v>
+      </c>
+      <c r="G73" s="2">
+        <v>7</v>
+      </c>
+      <c r="H73" s="3">
+        <v>7</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74">
+        <v>146</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3">
+        <v>7</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75">
+        <v>157</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2">
+        <v>9</v>
+      </c>
+      <c r="H75" s="3">
+        <v>7</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76">
+        <v>155</v>
+      </c>
+      <c r="D76" s="2">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>7</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77">
+        <v>132</v>
+      </c>
+      <c r="D77" s="2">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2">
+        <v>7</v>
+      </c>
+      <c r="G77" s="2">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3">
+        <v>7</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78">
+        <v>154</v>
+      </c>
+      <c r="D78" s="2">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2">
+        <v>7</v>
+      </c>
+      <c r="H78" s="3">
+        <v>7</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79">
+        <v>167</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6</v>
+      </c>
+      <c r="F79" s="2">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3">
+        <v>7</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80">
+        <v>148</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2">
+        <v>6</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81">
+        <v>148</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82">
+        <v>155</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
+        <v>5</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+      <c r="H82" s="3">
+        <v>7</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83">
+        <v>147</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2">
+        <v>8</v>
+      </c>
+      <c r="G83" s="2">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84">
+        <v>167</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>7</v>
+      </c>
+      <c r="G84" s="2">
+        <v>7</v>
+      </c>
+      <c r="H84" s="3">
+        <v>7</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85">
+        <v>168</v>
+      </c>
+      <c r="D85" s="2">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2">
+        <v>4</v>
+      </c>
+      <c r="G85" s="2">
+        <v>5</v>
+      </c>
+      <c r="H85" s="3">
+        <v>7</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86">
+        <v>159</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2">
+        <v>5</v>
+      </c>
+      <c r="H86" s="3">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87">
+        <v>155</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3">
+        <v>7</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88">
+        <v>156</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3</v>
+      </c>
+      <c r="F88" s="2">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2">
+        <v>9</v>
+      </c>
+      <c r="H88" s="3">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89">
+        <v>153</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>6</v>
+      </c>
+      <c r="G89" s="2">
+        <v>7</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90">
+        <v>151</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2">
+        <v>7</v>
+      </c>
+      <c r="H90" s="3">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91">
+        <v>155</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2">
+        <v>9</v>
+      </c>
+      <c r="H91" s="3">
+        <v>7</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>157</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>9</v>
+      </c>
+      <c r="G92" s="2">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3">
+        <v>7</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93">
+        <v>159</v>
+      </c>
+      <c r="D93" s="2">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>5</v>
+      </c>
+      <c r="H93" s="3">
+        <v>7</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>163</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2">
+        <v>3</v>
+      </c>
+      <c r="G94" s="2">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>7</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95">
+        <v>160</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2">
+        <v>7</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>4</v>
+      </c>
+      <c r="H95" s="3">
+        <v>7</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96">
+        <v>148</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>3</v>
+      </c>
+      <c r="H96" s="3">
+        <v>7</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97">
+        <v>150</v>
+      </c>
+      <c r="D97" s="2">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2">
+        <v>9</v>
+      </c>
+      <c r="H97" s="3">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98">
+        <v>156</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="E98" s="2">
+        <v>7</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3">
+        <v>7</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99">
+        <v>168</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2">
+        <v>5</v>
+      </c>
+      <c r="G99" s="2">
+        <v>5</v>
+      </c>
+      <c r="H99" s="3">
+        <v>7</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100">
+        <v>169</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3">
+        <v>7</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101">
+        <v>165</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102">
+        <v>142</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2">
+        <v>7</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103">
+        <v>147</v>
+      </c>
+      <c r="D103" s="2">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2">
+        <v>6</v>
+      </c>
+      <c r="F103" s="2">
+        <v>7</v>
+      </c>
+      <c r="G103" s="2">
+        <v>4</v>
+      </c>
+      <c r="H103" s="3">
+        <v>7</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104">
+        <v>163</v>
+      </c>
+      <c r="D104" s="2">
+        <v>5</v>
+      </c>
+      <c r="E104" s="2">
+        <v>6</v>
+      </c>
+      <c r="F104" s="2">
+        <v>3</v>
+      </c>
+      <c r="G104" s="2">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3">
+        <v>7</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105">
+        <v>168</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3</v>
+      </c>
+      <c r="F105" s="2">
+        <v>5</v>
+      </c>
+      <c r="G105" s="2">
+        <v>3</v>
+      </c>
+      <c r="H105" s="3">
+        <v>7</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106">
+        <v>165</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2">
+        <v>7</v>
+      </c>
+      <c r="F106" s="2">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2">
+        <v>5</v>
+      </c>
+      <c r="H106" s="3">
+        <v>7</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107">
+        <v>169</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2">
+        <v>7</v>
+      </c>
+      <c r="F107" s="2">
+        <v>4</v>
+      </c>
+      <c r="G107" s="2">
+        <v>4</v>
+      </c>
+      <c r="H107" s="3">
+        <v>7</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108">
+        <v>156</v>
+      </c>
+      <c r="D108" s="2">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2">
+        <v>7</v>
+      </c>
+      <c r="F108" s="2">
+        <v>7</v>
+      </c>
+      <c r="G108" s="2">
+        <v>3</v>
+      </c>
+      <c r="H108" s="3">
+        <v>7</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109">
+        <v>145</v>
+      </c>
+      <c r="D109" s="2">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <v>9</v>
+      </c>
+      <c r="G109" s="2">
+        <v>7</v>
+      </c>
+      <c r="H109" s="3">
+        <v>7</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110">
+        <v>162</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3">
+        <v>7</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111">
+        <v>139</v>
+      </c>
+      <c r="D111" s="2">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5</v>
+      </c>
+      <c r="F111" s="2">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3">
+        <v>7</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112">
+        <v>156</v>
+      </c>
+      <c r="D112" s="2">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2">
+        <v>10</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2</v>
+      </c>
+      <c r="G112" s="2">
+        <v>3</v>
+      </c>
+      <c r="H112" s="3">
+        <v>7</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113">
+        <v>161</v>
+      </c>
+      <c r="D113" s="2">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2">
+        <v>7</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7</v>
+      </c>
+      <c r="G113" s="2">
+        <v>7</v>
+      </c>
+      <c r="H113" s="3">
+        <v>7</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114">
+        <v>169</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7</v>
+      </c>
+      <c r="E114" s="2">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2">
+        <v>7</v>
+      </c>
+      <c r="G114" s="2">
+        <v>7</v>
+      </c>
+      <c r="H114" s="3">
+        <v>7</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115">
+        <v>162</v>
+      </c>
+      <c r="D115" s="2">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>7</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116">
+        <v>169</v>
+      </c>
+      <c r="D116" s="2">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2">
+        <v>7</v>
+      </c>
+      <c r="F116" s="2">
+        <v>4</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3</v>
+      </c>
+      <c r="H116" s="3">
+        <v>7</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117">
+        <v>164</v>
+      </c>
+      <c r="D117" s="2">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2">
+        <v>7</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3">
+        <v>7</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118">
+        <v>161</v>
+      </c>
+      <c r="D118" s="2">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4</v>
+      </c>
+      <c r="F118" s="2">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2">
+        <v>6</v>
+      </c>
+      <c r="H118" s="3">
+        <v>7</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119">
+        <v>169</v>
+      </c>
+      <c r="D119" s="2">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6</v>
+      </c>
+      <c r="F119" s="2">
+        <v>3</v>
+      </c>
+      <c r="G119" s="2">
+        <v>3</v>
+      </c>
+      <c r="H119" s="3">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120">
+        <v>165</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>4</v>
+      </c>
+      <c r="F120" s="2">
+        <v>8</v>
+      </c>
+      <c r="G120" s="2">
+        <v>7</v>
+      </c>
+      <c r="H120" s="3">
+        <v>7</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121">
+        <v>162</v>
+      </c>
+      <c r="D121" s="2">
+        <v>6</v>
+      </c>
+      <c r="E121" s="2">
+        <v>8</v>
+      </c>
+      <c r="F121" s="2">
+        <v>2</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3">
+        <v>7</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122">
+        <v>159</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2">
+        <v>6</v>
+      </c>
+      <c r="F122" s="2">
+        <v>3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>2</v>
+      </c>
+      <c r="H122" s="3">
+        <v>7</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123">
+        <v>163</v>
+      </c>
+      <c r="D123" s="2">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>7</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124">
+        <v>153</v>
+      </c>
+      <c r="D124" s="2">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2">
+        <v>4</v>
+      </c>
+      <c r="F124" s="2">
+        <v>7</v>
+      </c>
+      <c r="G124" s="2">
+        <v>7</v>
+      </c>
+      <c r="H124" s="3">
+        <v>7</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125">
+        <v>169</v>
+      </c>
+      <c r="D125" s="2">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2">
+        <v>7</v>
+      </c>
+      <c r="F125" s="2">
+        <v>3</v>
+      </c>
+      <c r="G125" s="2">
+        <v>3</v>
+      </c>
+      <c r="H125" s="3">
+        <v>7</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126">
+        <v>150</v>
+      </c>
+      <c r="D126" s="2">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2">
+        <v>5</v>
+      </c>
+      <c r="F126" s="2">
+        <v>7</v>
+      </c>
+      <c r="G126" s="2">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3">
+        <v>7</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127">
+        <v>146</v>
+      </c>
+      <c r="D127" s="2">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2">
+        <v>7</v>
+      </c>
+      <c r="F127" s="2">
+        <v>3</v>
+      </c>
+      <c r="G127" s="2">
+        <v>6</v>
+      </c>
+      <c r="H127" s="3">
+        <v>7</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128">
+        <v>167</v>
+      </c>
+      <c r="D128" s="2">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2">
+        <v>8</v>
+      </c>
+      <c r="F128" s="2">
+        <v>2</v>
+      </c>
+      <c r="G128" s="2">
+        <v>3</v>
+      </c>
+      <c r="H128" s="3">
+        <v>7</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129">
+        <v>156</v>
+      </c>
+      <c r="D129" s="2">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2">
+        <v>6</v>
+      </c>
+      <c r="F129" s="2">
+        <v>7</v>
+      </c>
+      <c r="G129" s="2">
+        <v>9</v>
+      </c>
+      <c r="H129" s="3">
+        <v>7</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130">
+        <v>157</v>
+      </c>
+      <c r="D130" s="2">
+        <v>7</v>
+      </c>
+      <c r="E130" s="2">
+        <v>8</v>
+      </c>
+      <c r="F130" s="2">
+        <v>4</v>
+      </c>
+      <c r="G130" s="2">
+        <v>4</v>
+      </c>
+      <c r="H130" s="3">
+        <v>7</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131">
+        <v>164</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2">
+        <v>7</v>
+      </c>
+      <c r="F131" s="2">
+        <v>4</v>
+      </c>
+      <c r="G131" s="2">
+        <v>5</v>
+      </c>
+      <c r="H131" s="3">
+        <v>7</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132">
+        <v>156</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2">
+        <v>4</v>
+      </c>
+      <c r="F132" s="2">
+        <v>7</v>
+      </c>
+      <c r="G132" s="2">
+        <v>7</v>
+      </c>
+      <c r="H132" s="3">
+        <v>7</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133">
+        <v>165</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>9</v>
+      </c>
+      <c r="G133" s="2">
+        <v>7</v>
+      </c>
+      <c r="H133" s="3">
+        <v>7</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134">
+        <v>157</v>
+      </c>
+      <c r="D134" s="2">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2">
+        <v>7</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>5</v>
+      </c>
+      <c r="H134" s="3">
+        <v>7</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135">
+        <v>166</v>
+      </c>
+      <c r="D135" s="2">
+        <v>8</v>
+      </c>
+      <c r="E135" s="2">
+        <v>9</v>
+      </c>
+      <c r="F135" s="2">
+        <v>6</v>
+      </c>
+      <c r="G135" s="2">
+        <v>6</v>
+      </c>
+      <c r="H135" s="3">
+        <v>7</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136">
+        <v>169</v>
+      </c>
+      <c r="D136" s="2">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2">
+        <v>7</v>
+      </c>
+      <c r="F136" s="2">
+        <v>8</v>
+      </c>
+      <c r="G136" s="2">
+        <v>7</v>
+      </c>
+      <c r="H136" s="3">
+        <v>7</v>
+      </c>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137">
+        <v>162</v>
+      </c>
+      <c r="D137" s="2">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2">
+        <v>4</v>
+      </c>
+      <c r="F137" s="2">
+        <v>9</v>
+      </c>
+      <c r="G137" s="2">
+        <v>10</v>
+      </c>
+      <c r="H137" s="3">
+        <v>7</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138">
+        <v>154</v>
+      </c>
+      <c r="D138" s="2">
+        <v>7</v>
+      </c>
+      <c r="E138" s="2">
+        <v>7</v>
+      </c>
+      <c r="F138" s="2">
+        <v>7</v>
+      </c>
+      <c r="G138" s="2">
+        <v>5</v>
+      </c>
+      <c r="H138" s="3">
+        <v>7</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139">
+        <v>150</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2">
+        <v>5</v>
+      </c>
+      <c r="F139" s="2">
+        <v>7</v>
+      </c>
+      <c r="G139" s="2">
+        <v>6</v>
+      </c>
+      <c r="H139" s="3">
+        <v>7</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140">
+        <v>162</v>
+      </c>
+      <c r="D140" s="2">
+        <v>4</v>
+      </c>
+      <c r="E140" s="2">
+        <v>4</v>
+      </c>
+      <c r="F140" s="2">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2">
+        <v>7</v>
+      </c>
+      <c r="H140" s="3">
+        <v>7</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141">
+        <v>162</v>
+      </c>
+      <c r="D141" s="2">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2">
+        <v>7</v>
+      </c>
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" s="2">
+        <v>4</v>
+      </c>
+      <c r="H141" s="3">
+        <v>7</v>
+      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142">
+        <v>163</v>
+      </c>
+      <c r="D142" s="2">
+        <v>7</v>
+      </c>
+      <c r="E142" s="2">
+        <v>7</v>
+      </c>
+      <c r="F142" s="2">
+        <v>5</v>
+      </c>
+      <c r="G142" s="2">
+        <v>6</v>
+      </c>
+      <c r="H142" s="3">
+        <v>7</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143">
+        <v>168</v>
+      </c>
+      <c r="D143" s="2">
+        <v>4</v>
+      </c>
+      <c r="E143" s="2">
+        <v>7</v>
+      </c>
+      <c r="F143" s="2">
+        <v>8</v>
+      </c>
+      <c r="G143" s="2">
+        <v>7</v>
+      </c>
+      <c r="H143" s="3">
+        <v>7</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>137</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>9</v>
+      </c>
+      <c r="G144" s="2">
+        <v>7</v>
+      </c>
+      <c r="H144" s="3">
+        <v>7</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>152</v>
+      </c>
+      <c r="D145" s="2">
+        <v>5</v>
+      </c>
+      <c r="E145" s="2">
+        <v>6</v>
+      </c>
+      <c r="F145" s="2">
+        <v>3</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2</v>
+      </c>
+      <c r="H145" s="3">
+        <v>7</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146">
+        <v>156</v>
+      </c>
+      <c r="D146" s="2">
+        <v>7</v>
+      </c>
+      <c r="E146" s="2">
+        <v>8</v>
+      </c>
+      <c r="F146" s="2">
+        <v>4</v>
+      </c>
+      <c r="G146" s="2">
+        <v>3</v>
+      </c>
+      <c r="H146" s="3">
+        <v>7</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>142</v>
+      </c>
+      <c r="C147">
+        <v>151</v>
+      </c>
+      <c r="D147" s="2">
+        <v>5</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>8</v>
+      </c>
+      <c r="G147" s="2">
+        <v>7</v>
+      </c>
+      <c r="H147" s="3">
+        <v>7</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148">
+        <v>161</v>
+      </c>
+      <c r="D148" s="2">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2">
+        <v>10</v>
+      </c>
+      <c r="F148" s="2">
+        <v>2</v>
+      </c>
+      <c r="G148" s="2">
+        <v>3</v>
+      </c>
+      <c r="H148" s="3">
+        <v>7</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149">
+        <v>151</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2">
+        <v>6</v>
+      </c>
+      <c r="F149" s="2">
+        <v>5</v>
+      </c>
+      <c r="G149" s="2">
+        <v>2</v>
+      </c>
+      <c r="H149" s="3">
+        <v>7</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150">
+        <v>166</v>
+      </c>
+      <c r="D150" s="2">
+        <v>8</v>
+      </c>
+      <c r="E150" s="2">
+        <v>7</v>
+      </c>
+      <c r="F150" s="2">
+        <v>7</v>
+      </c>
+      <c r="G150" s="2">
+        <v>7</v>
+      </c>
+      <c r="H150" s="3">
+        <v>7</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151">
+        <v>163</v>
+      </c>
+      <c r="D151" s="2">
+        <v>5</v>
+      </c>
+      <c r="E151" s="2">
+        <v>8</v>
+      </c>
+      <c r="F151" s="2">
+        <v>2</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3">
+        <v>7</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152">
+        <v>157</v>
+      </c>
+      <c r="D152" s="2">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>8</v>
+      </c>
+      <c r="G152" s="2">
+        <v>9</v>
+      </c>
+      <c r="H152" s="3">
+        <v>7</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>136</v>
+      </c>
+      <c r="C153">
+        <v>157</v>
+      </c>
+      <c r="D153" s="2">
+        <v>9</v>
+      </c>
+      <c r="E153" s="2">
+        <v>9</v>
+      </c>
+      <c r="F153" s="2">
+        <v>8</v>
+      </c>
+      <c r="G153" s="2">
+        <v>6</v>
+      </c>
+      <c r="H153" s="3">
+        <v>7</v>
+      </c>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154">
+        <v>163</v>
+      </c>
+      <c r="D154" s="2">
+        <v>9</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2">
+        <v>6</v>
+      </c>
+      <c r="G154" s="2">
+        <v>5</v>
+      </c>
+      <c r="H154" s="3">
+        <v>7</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155">
+        <v>167</v>
+      </c>
+      <c r="D155" s="2">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2</v>
+      </c>
+      <c r="F155" s="2">
+        <v>7</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7</v>
+      </c>
+      <c r="H155" s="3">
+        <v>7</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156">
+        <v>165</v>
+      </c>
+      <c r="D156" s="2">
+        <v>7</v>
+      </c>
+      <c r="E156" s="2">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2">
+        <v>7</v>
+      </c>
+      <c r="G156" s="2">
+        <v>7</v>
+      </c>
+      <c r="H156" s="3">
+        <v>7</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157">
+        <v>151</v>
+      </c>
+      <c r="D157" s="2">
+        <v>7</v>
+      </c>
+      <c r="E157" s="2">
+        <v>7</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>4</v>
+      </c>
+      <c r="H157" s="3">
+        <v>7</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158">
+        <v>169</v>
+      </c>
+      <c r="D158" s="2">
+        <v>8</v>
+      </c>
+      <c r="E158" s="2">
+        <v>9</v>
+      </c>
+      <c r="F158" s="2">
+        <v>5</v>
+      </c>
+      <c r="G158" s="2">
+        <v>7</v>
+      </c>
+      <c r="H158" s="3">
+        <v>7</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159">
+        <v>147</v>
+      </c>
+      <c r="D159" s="2">
+        <v>8</v>
+      </c>
+      <c r="E159" s="2">
+        <v>7</v>
+      </c>
+      <c r="F159" s="2">
+        <v>4</v>
+      </c>
+      <c r="G159" s="2">
+        <v>7</v>
+      </c>
+      <c r="H159" s="3">
+        <v>7</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160">
+        <v>155</v>
+      </c>
+      <c r="D160" s="2">
+        <v>5</v>
+      </c>
+      <c r="E160" s="2">
+        <v>7</v>
+      </c>
+      <c r="F160" s="2">
+        <v>6</v>
+      </c>
+      <c r="G160" s="2">
+        <v>7</v>
+      </c>
+      <c r="H160" s="3">
+        <v>7</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161">
+        <v>152</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <v>8</v>
+      </c>
+      <c r="G161" s="2">
+        <v>7</v>
+      </c>
+      <c r="H161" s="3">
+        <v>7</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162">
+        <v>155</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1</v>
+      </c>
+      <c r="F162" s="2">
+        <v>4</v>
+      </c>
+      <c r="G162" s="2">
+        <v>8</v>
+      </c>
+      <c r="H162" s="3">
+        <v>7</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163">
+        <v>163</v>
+      </c>
+      <c r="D163" s="2">
+        <v>5</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2">
+        <v>10</v>
+      </c>
+      <c r="H163" s="3">
+        <v>7</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164">
+        <v>157</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2</v>
+      </c>
+      <c r="F164" s="2">
+        <v>9</v>
+      </c>
+      <c r="G164" s="2">
+        <v>9</v>
+      </c>
+      <c r="H164" s="3">
+        <v>7</v>
+      </c>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165">
+        <v>142</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7</v>
+      </c>
+      <c r="E165" s="2">
+        <v>7</v>
+      </c>
+      <c r="F165" s="2">
+        <v>2</v>
+      </c>
+      <c r="G165" s="2">
+        <v>3</v>
+      </c>
+      <c r="H165" s="3">
+        <v>7</v>
+      </c>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>123</v>
+      </c>
+      <c r="C166">
+        <v>163</v>
+      </c>
+      <c r="D166" s="2">
+        <v>7</v>
+      </c>
+      <c r="E166" s="2">
+        <v>7</v>
+      </c>
+      <c r="F166" s="2">
+        <v>5</v>
+      </c>
+      <c r="G166" s="2">
+        <v>4</v>
+      </c>
+      <c r="H166" s="3">
+        <v>7</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167">
+        <v>145</v>
+      </c>
+      <c r="D167" s="2">
+        <v>7</v>
+      </c>
+      <c r="E167" s="2">
+        <v>8</v>
+      </c>
+      <c r="F167" s="2">
+        <v>2</v>
+      </c>
+      <c r="G167" s="2">
+        <v>6</v>
+      </c>
+      <c r="H167" s="3">
+        <v>7</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168">
+        <v>153</v>
+      </c>
+      <c r="D168" s="2">
+        <v>8</v>
+      </c>
+      <c r="E168" s="2">
+        <v>8</v>
+      </c>
+      <c r="F168" s="2">
+        <v>7</v>
+      </c>
+      <c r="G168" s="2">
+        <v>7</v>
+      </c>
+      <c r="H168" s="3">
+        <v>7</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169">
+        <v>151</v>
+      </c>
+      <c r="D169" s="2">
+        <v>5</v>
+      </c>
+      <c r="E169" s="2">
+        <v>6</v>
+      </c>
+      <c r="F169" s="2">
+        <v>4</v>
+      </c>
+      <c r="G169" s="2">
+        <v>4</v>
+      </c>
+      <c r="H169" s="3">
+        <v>7</v>
+      </c>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>119</v>
+      </c>
+      <c r="C170">
+        <v>163</v>
+      </c>
+      <c r="D170" s="2">
+        <v>3</v>
+      </c>
+      <c r="E170" s="2">
+        <v>3</v>
+      </c>
+      <c r="F170" s="2">
+        <v>8</v>
+      </c>
+      <c r="G170" s="2">
+        <v>8</v>
+      </c>
+      <c r="H170" s="3">
+        <v>7</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171">
+        <v>168</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8</v>
+      </c>
+      <c r="E171" s="2">
+        <v>5</v>
+      </c>
+      <c r="F171" s="2">
+        <v>8</v>
+      </c>
+      <c r="G171" s="2">
+        <v>7</v>
+      </c>
+      <c r="H171" s="3">
+        <v>7</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172">
+        <v>158</v>
+      </c>
+      <c r="D172" s="2">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2">
+        <v>3</v>
+      </c>
+      <c r="F172" s="2">
+        <v>7</v>
+      </c>
+      <c r="G172" s="2">
+        <v>7</v>
+      </c>
+      <c r="H172" s="3">
+        <v>7</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173">
+        <v>160</v>
+      </c>
+      <c r="D173" s="2">
+        <v>8</v>
+      </c>
+      <c r="E173" s="2">
+        <v>10</v>
+      </c>
+      <c r="F173" s="2">
+        <v>3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>5</v>
+      </c>
+      <c r="H173" s="3">
+        <v>7</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174">
+        <v>159</v>
+      </c>
+      <c r="D174" s="2">
+        <v>6</v>
+      </c>
+      <c r="E174" s="2">
+        <v>6</v>
+      </c>
+      <c r="F174" s="2">
+        <v>3</v>
+      </c>
+      <c r="G174" s="2">
+        <v>4</v>
+      </c>
+      <c r="H174" s="3">
+        <v>7</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>114</v>
+      </c>
+      <c r="C175">
+        <v>153</v>
+      </c>
+      <c r="D175" s="2">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2">
+        <v>7</v>
+      </c>
+      <c r="F175" s="2">
+        <v>2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>3</v>
+      </c>
+      <c r="H175" s="3">
+        <v>7</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176">
+        <v>152</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <v>6</v>
+      </c>
+      <c r="G176" s="2">
+        <v>8</v>
+      </c>
+      <c r="H176" s="3">
+        <v>7</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177">
+        <v>167</v>
+      </c>
+      <c r="D177" s="2">
+        <v>7</v>
+      </c>
+      <c r="E177" s="2">
+        <v>7</v>
+      </c>
+      <c r="F177" s="2">
+        <v>6</v>
+      </c>
+      <c r="G177" s="2">
+        <v>6</v>
+      </c>
+      <c r="H177" s="3">
+        <v>7</v>
+      </c>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>111</v>
+      </c>
+      <c r="C178">
+        <v>162</v>
+      </c>
+      <c r="D178" s="2">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2</v>
+      </c>
+      <c r="F178" s="2">
+        <v>9</v>
+      </c>
+      <c r="G178" s="2">
+        <v>7</v>
+      </c>
+      <c r="H178" s="3">
+        <v>7</v>
+      </c>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>110</v>
+      </c>
+      <c r="C179">
+        <v>159</v>
+      </c>
+      <c r="D179" s="2">
+        <v>8</v>
+      </c>
+      <c r="E179" s="2">
+        <v>8</v>
+      </c>
+      <c r="F179" s="2">
+        <v>6</v>
+      </c>
+      <c r="G179" s="2">
+        <v>7</v>
+      </c>
+      <c r="H179" s="3">
+        <v>7</v>
+      </c>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>109</v>
+      </c>
+      <c r="C180">
+        <v>158</v>
+      </c>
+      <c r="D180" s="2">
+        <v>7</v>
+      </c>
+      <c r="E180" s="2">
+        <v>8</v>
+      </c>
+      <c r="F180" s="2">
+        <v>3</v>
+      </c>
+      <c r="G180" s="2">
+        <v>3</v>
+      </c>
+      <c r="H180" s="3">
+        <v>7</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181">
+        <v>164</v>
+      </c>
+      <c r="D181" s="2">
+        <v>4</v>
+      </c>
+      <c r="E181" s="2">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2">
+        <v>8</v>
+      </c>
+      <c r="G181" s="2">
+        <v>9</v>
+      </c>
+      <c r="H181" s="3">
+        <v>7</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>107</v>
+      </c>
+      <c r="C182">
+        <v>154</v>
+      </c>
+      <c r="D182" s="2">
+        <v>8</v>
+      </c>
+      <c r="E182" s="2">
+        <v>7</v>
+      </c>
+      <c r="F182" s="2">
+        <v>8</v>
+      </c>
+      <c r="G182" s="2">
+        <v>8</v>
+      </c>
+      <c r="H182" s="3">
+        <v>7</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183">
+        <v>155</v>
+      </c>
+      <c r="D183" s="2">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2">
+        <v>7</v>
+      </c>
+      <c r="F183" s="2">
+        <v>2</v>
+      </c>
+      <c r="G183" s="2">
+        <v>7</v>
+      </c>
+      <c r="H183" s="3">
+        <v>7</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>105</v>
+      </c>
+      <c r="C184">
+        <v>150</v>
+      </c>
+      <c r="D184" s="2">
+        <v>6</v>
+      </c>
+      <c r="E184" s="2">
+        <v>4</v>
+      </c>
+      <c r="F184" s="2">
+        <v>8</v>
+      </c>
+      <c r="G184" s="2">
+        <v>7</v>
+      </c>
+      <c r="H184" s="3">
+        <v>7</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>104</v>
+      </c>
+      <c r="C185">
+        <v>163</v>
+      </c>
+      <c r="D185" s="2">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2</v>
+      </c>
+      <c r="F185" s="2">
+        <v>4</v>
+      </c>
+      <c r="G185" s="2">
+        <v>4</v>
+      </c>
+      <c r="H185" s="3">
+        <v>7</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>103</v>
+      </c>
+      <c r="C186">
+        <v>165</v>
+      </c>
+      <c r="D186" s="2">
+        <v>8</v>
+      </c>
+      <c r="E186" s="2">
+        <v>7</v>
+      </c>
+      <c r="F186" s="2">
+        <v>5</v>
+      </c>
+      <c r="G186" s="2">
+        <v>5</v>
+      </c>
+      <c r="H186" s="3">
+        <v>7</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>102</v>
+      </c>
+      <c r="C187">
+        <v>161</v>
+      </c>
+      <c r="D187" s="2">
+        <v>7</v>
+      </c>
+      <c r="E187" s="2">
+        <v>7</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" s="2">
+        <v>4</v>
+      </c>
+      <c r="H187" s="3">
+        <v>7</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>101</v>
+      </c>
+      <c r="C188">
+        <v>148</v>
+      </c>
+      <c r="D188" s="2">
+        <v>8</v>
+      </c>
+      <c r="E188" s="2">
+        <v>7</v>
+      </c>
+      <c r="F188" s="2">
+        <v>7</v>
+      </c>
+      <c r="G188" s="2">
+        <v>9</v>
+      </c>
+      <c r="H188" s="3">
+        <v>7</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>100</v>
+      </c>
+      <c r="C189">
+        <v>156</v>
+      </c>
+      <c r="D189" s="2">
+        <v>7</v>
+      </c>
+      <c r="E189" s="2">
+        <v>7</v>
+      </c>
+      <c r="F189" s="2">
+        <v>4</v>
+      </c>
+      <c r="G189" s="2">
+        <v>5</v>
+      </c>
+      <c r="H189" s="3">
+        <v>7</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190">
+        <v>167</v>
+      </c>
+      <c r="D190" s="2">
+        <v>8</v>
+      </c>
+      <c r="E190" s="2">
+        <v>10</v>
+      </c>
+      <c r="F190" s="2">
+        <v>2</v>
+      </c>
+      <c r="G190" s="2">
+        <v>4</v>
+      </c>
+      <c r="H190" s="3">
+        <v>7</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191">
+        <v>153</v>
+      </c>
+      <c r="D191" s="2">
+        <v>3</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2">
+        <v>9</v>
+      </c>
+      <c r="H191" s="3">
+        <v>7</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192">
+        <v>144</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7</v>
+      </c>
+      <c r="E192" s="2">
+        <v>7</v>
+      </c>
+      <c r="F192" s="2">
+        <v>6</v>
+      </c>
+      <c r="G192" s="2">
+        <v>5</v>
+      </c>
+      <c r="H192" s="3">
+        <v>7</v>
+      </c>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>96</v>
+      </c>
+      <c r="C193">
+        <v>140</v>
+      </c>
+      <c r="D193" s="2">
+        <v>9</v>
+      </c>
+      <c r="E193" s="2">
+        <v>3</v>
+      </c>
+      <c r="F193" s="2">
+        <v>8</v>
+      </c>
+      <c r="G193" s="2">
+        <v>9</v>
+      </c>
+      <c r="H193" s="3">
+        <v>7</v>
+      </c>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>95</v>
+      </c>
+      <c r="C194">
+        <v>153</v>
+      </c>
+      <c r="D194" s="2">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2">
+        <v>8</v>
+      </c>
+      <c r="F194" s="2">
+        <v>5</v>
+      </c>
+      <c r="G194" s="2">
+        <v>7</v>
+      </c>
+      <c r="H194" s="3">
+        <v>7</v>
+      </c>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>94</v>
+      </c>
+      <c r="C195">
+        <v>169</v>
+      </c>
+      <c r="D195" s="2">
+        <v>9</v>
+      </c>
+      <c r="E195" s="2">
+        <v>9</v>
+      </c>
+      <c r="F195" s="2">
+        <v>7</v>
+      </c>
+      <c r="G195" s="2">
+        <v>8</v>
+      </c>
+      <c r="H195" s="3">
+        <v>7</v>
+      </c>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196">
+        <v>163</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4</v>
+      </c>
+      <c r="E196" s="2">
+        <v>3</v>
+      </c>
+      <c r="F196" s="2">
+        <v>8</v>
+      </c>
+      <c r="G196" s="2">
+        <v>7</v>
+      </c>
+      <c r="H196" s="3">
+        <v>7</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>92</v>
+      </c>
+      <c r="C197">
+        <v>155</v>
+      </c>
+      <c r="D197" s="2">
+        <v>5</v>
+      </c>
+      <c r="E197" s="2">
+        <v>5</v>
+      </c>
+      <c r="F197" s="2">
+        <v>7</v>
+      </c>
+      <c r="G197" s="2">
+        <v>7</v>
+      </c>
+      <c r="H197" s="3">
+        <v>7</v>
+      </c>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198">
+        <v>169</v>
+      </c>
+      <c r="D198" s="2">
+        <v>9</v>
+      </c>
+      <c r="E198" s="2">
+        <v>9</v>
+      </c>
+      <c r="F198" s="2">
+        <v>6</v>
+      </c>
+      <c r="G198" s="2">
+        <v>8</v>
+      </c>
+      <c r="H198" s="3">
+        <v>7</v>
+      </c>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>90</v>
+      </c>
+      <c r="C199">
+        <v>154</v>
+      </c>
+      <c r="D199" s="2">
+        <v>8</v>
+      </c>
+      <c r="E199" s="2">
+        <v>7</v>
+      </c>
+      <c r="F199" s="2">
+        <v>5</v>
+      </c>
+      <c r="G199" s="2">
+        <v>6</v>
+      </c>
+      <c r="H199" s="3">
+        <v>7</v>
+      </c>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200">
+        <v>153</v>
+      </c>
+      <c r="D200" s="2">
+        <v>8</v>
+      </c>
+      <c r="E200" s="2">
+        <v>8</v>
+      </c>
+      <c r="F200" s="2">
+        <v>6</v>
+      </c>
+      <c r="G200" s="2">
+        <v>5</v>
+      </c>
+      <c r="H200" s="3">
+        <v>7</v>
+      </c>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>88</v>
+      </c>
+      <c r="C201">
+        <v>151</v>
+      </c>
+      <c r="D201" s="2">
+        <v>7</v>
+      </c>
+      <c r="E201" s="2">
+        <v>7</v>
+      </c>
+      <c r="F201" s="2">
+        <v>6</v>
+      </c>
+      <c r="G201" s="2">
+        <v>7</v>
+      </c>
+      <c r="H201" s="3">
+        <v>7</v>
+      </c>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202">
+        <v>154</v>
+      </c>
+      <c r="D202" s="2">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2">
+        <v>7</v>
+      </c>
+      <c r="F202" s="2">
+        <v>4</v>
+      </c>
+      <c r="G202" s="2">
+        <v>4</v>
+      </c>
+      <c r="H202" s="3">
+        <v>7</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>86</v>
+      </c>
+      <c r="C203">
+        <v>163</v>
+      </c>
+      <c r="D203" s="2">
+        <v>7</v>
+      </c>
+      <c r="E203" s="2">
+        <v>7</v>
+      </c>
+      <c r="F203" s="2">
+        <v>6</v>
+      </c>
+      <c r="G203" s="2">
+        <v>5</v>
+      </c>
+      <c r="H203" s="3">
+        <v>7</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204">
+        <v>156</v>
+      </c>
+      <c r="D204" s="2">
+        <v>4</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0</v>
+      </c>
+      <c r="F204" s="2">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2">
+        <v>9</v>
+      </c>
+      <c r="H204" s="3">
+        <v>7</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>84</v>
+      </c>
+      <c r="C205">
+        <v>168</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2</v>
+      </c>
+      <c r="E205" s="2">
+        <v>2</v>
+      </c>
+      <c r="F205" s="2">
+        <v>6</v>
+      </c>
+      <c r="G205" s="2">
+        <v>4</v>
+      </c>
+      <c r="H205" s="3">
+        <v>7</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>83</v>
+      </c>
+      <c r="C206">
+        <v>156</v>
+      </c>
+      <c r="D206" s="2">
+        <v>6</v>
+      </c>
+      <c r="E206" s="2">
+        <v>7</v>
+      </c>
+      <c r="F206" s="2">
+        <v>3</v>
+      </c>
+      <c r="G206" s="2">
+        <v>4</v>
+      </c>
+      <c r="H206" s="3">
+        <v>7</v>
+      </c>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207">
+        <v>168</v>
+      </c>
+      <c r="D207" s="2">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2">
+        <v>10</v>
+      </c>
+      <c r="F207" s="2">
+        <v>7</v>
+      </c>
+      <c r="G207" s="2">
+        <v>8</v>
+      </c>
+      <c r="H207" s="3">
+        <v>7</v>
+      </c>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>81</v>
+      </c>
+      <c r="C208">
+        <v>151</v>
+      </c>
+      <c r="D208" s="2">
+        <v>6</v>
+      </c>
+      <c r="E208" s="2">
+        <v>2</v>
+      </c>
+      <c r="F208" s="2">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2">
+        <v>8</v>
+      </c>
+      <c r="H208" s="3">
+        <v>7</v>
+      </c>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>80</v>
+      </c>
+      <c r="C209">
+        <v>164</v>
+      </c>
+      <c r="D209" s="2">
+        <v>7</v>
+      </c>
+      <c r="E209" s="2">
+        <v>8</v>
+      </c>
+      <c r="F209" s="2">
+        <v>4</v>
+      </c>
+      <c r="G209" s="2">
+        <v>6</v>
+      </c>
+      <c r="H209" s="3">
+        <v>7</v>
+      </c>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210">
+        <v>159</v>
+      </c>
+      <c r="D210" s="2">
+        <v>7</v>
+      </c>
+      <c r="E210" s="2">
+        <v>7</v>
+      </c>
+      <c r="F210" s="2">
+        <v>6</v>
+      </c>
+      <c r="G210" s="2">
+        <v>7</v>
+      </c>
+      <c r="H210" s="3">
+        <v>7</v>
+      </c>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211">
+        <v>149</v>
+      </c>
+      <c r="D211" s="2">
+        <v>8</v>
+      </c>
+      <c r="E211" s="2">
+        <v>4</v>
+      </c>
+      <c r="F211" s="2">
+        <v>8</v>
+      </c>
+      <c r="G211" s="2">
+        <v>7</v>
+      </c>
+      <c r="H211" s="3">
+        <v>7</v>
+      </c>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>77</v>
+      </c>
+      <c r="C212">
+        <v>156</v>
+      </c>
+      <c r="D212" s="2">
+        <v>7</v>
+      </c>
+      <c r="E212" s="2">
+        <v>6</v>
+      </c>
+      <c r="F212" s="2">
+        <v>7</v>
+      </c>
+      <c r="G212" s="2">
+        <v>7</v>
+      </c>
+      <c r="H212" s="3">
+        <v>7</v>
+      </c>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>76</v>
+      </c>
+      <c r="C213">
+        <v>148</v>
+      </c>
+      <c r="D213" s="2">
+        <v>7</v>
+      </c>
+      <c r="E213" s="2">
+        <v>7</v>
+      </c>
+      <c r="F213" s="2">
+        <v>5</v>
+      </c>
+      <c r="G213" s="2">
+        <v>4</v>
+      </c>
+      <c r="H213" s="3">
+        <v>7</v>
+      </c>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>75</v>
+      </c>
+      <c r="C214">
+        <v>144</v>
+      </c>
+      <c r="D214" s="2">
+        <v>7</v>
+      </c>
+      <c r="E214" s="2">
+        <v>7</v>
+      </c>
+      <c r="F214" s="2">
+        <v>6</v>
+      </c>
+      <c r="G214" s="2">
+        <v>7</v>
+      </c>
+      <c r="H214" s="3">
+        <v>7</v>
+      </c>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>74</v>
+      </c>
+      <c r="C215">
+        <v>155</v>
+      </c>
+      <c r="D215" s="2">
+        <v>7</v>
+      </c>
+      <c r="E215" s="2">
+        <v>7</v>
+      </c>
+      <c r="F215" s="2">
+        <v>5</v>
+      </c>
+      <c r="G215" s="2">
+        <v>6</v>
+      </c>
+      <c r="H215" s="3">
+        <v>7</v>
+      </c>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K215" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/code/数据库设计/中原剧本.xlsx
+++ b/code/数据库设计/中原剧本.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FC0878-F329-4EA2-8486-988BB814D28E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC66D0-D5E5-409C-97EA-80E195A67217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="中原势力" sheetId="3" r:id="rId1"/>
-    <sheet name="中原城池" sheetId="2" r:id="rId2"/>
-    <sheet name="中原武将" sheetId="4" r:id="rId3"/>
+    <sheet name="midFaction" sheetId="3" r:id="rId1"/>
+    <sheet name="midCity" sheetId="2" r:id="rId2"/>
+    <sheet name="midPerson" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">中原城池!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">midCity!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">midPerson!$A$1:$K$219</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,31 +258,766 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>唐瑁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上党</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+  </si>
+  <si>
+    <t>邹靖</t>
+  </si>
+  <si>
+    <t>邹丹</t>
+  </si>
+  <si>
+    <t>朱治</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>周昕</t>
+  </si>
+  <si>
+    <t>周仓</t>
+  </si>
+  <si>
+    <t>钟鳐</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>赵弘</t>
+  </si>
+  <si>
+    <t>赵范</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张允</t>
+  </si>
+  <si>
+    <t>张英</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>张繍</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>张邈</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张济</t>
+  </si>
+  <si>
+    <t>张紘</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张动</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>笮融</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>袁胤</t>
+  </si>
+  <si>
+    <t>袁遗</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
     <t>袁绍</t>
+  </si>
+  <si>
+    <t>虞翻</t>
+  </si>
+  <si>
+    <t>俞涉</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>伊籍</t>
+  </si>
+  <si>
+    <t>杨怀</t>
+  </si>
+  <si>
+    <t>杨弘</t>
+  </si>
+  <si>
+    <t>杨奉</t>
+  </si>
+  <si>
+    <t>杨丑</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>阎象</t>
+  </si>
+  <si>
+    <t>阎柔</t>
+  </si>
+  <si>
+    <t>阎圃</t>
+  </si>
+  <si>
+    <t>严政</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>严兴</t>
+  </si>
+  <si>
+    <t>严纲</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>荀或</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>许靖</t>
+  </si>
+  <si>
+    <t>许贡</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>盱固</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>向朗</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>夏侯敦</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>武安国</t>
+  </si>
+  <si>
+    <t>吴懿</t>
+  </si>
+  <si>
+    <t>吴巨</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>魏攸</t>
+  </si>
+  <si>
+    <t>魏続</t>
+  </si>
+  <si>
+    <t>王忠</t>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>王威</t>
+  </si>
+  <si>
+    <t>王門</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>王匡</t>
+  </si>
+  <si>
+    <t>田楷</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>田畴</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>孙仲</t>
+  </si>
+  <si>
+    <t>孙乾</t>
+  </si>
+  <si>
+    <t>孙静</t>
+  </si>
+  <si>
+    <t>苏由</t>
+  </si>
+  <si>
+    <t>宋憲</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>麹义</t>
+  </si>
+  <si>
+    <t>桥瑁</t>
+  </si>
+  <si>
+    <t>裴元绍</t>
+  </si>
+  <si>
+    <t>庞羲</t>
+  </si>
+  <si>
+    <t>潘凤</t>
+  </si>
+  <si>
+    <t>牛辅</t>
+  </si>
+  <si>
+    <t>穆顺</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>糜芳</t>
+  </si>
+  <si>
+    <t>毛阶</t>
+  </si>
+  <si>
+    <t>吕翔</t>
+  </si>
+  <si>
+    <t>吕威璜</t>
+  </si>
+  <si>
+    <t>吕旷</t>
+  </si>
+  <si>
+    <t>吕范</t>
+  </si>
+  <si>
+    <t>吕岱</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
+    <t>刘虞</t>
+  </si>
+  <si>
+    <t>刘鳐</t>
+  </si>
+  <si>
+    <t>刘辟</t>
+  </si>
+  <si>
+    <t>刘馈</t>
+  </si>
+  <si>
+    <t>刘度</t>
+  </si>
+  <si>
+    <t>刘动</t>
+  </si>
+  <si>
+    <t>刘岱</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>梁兴</t>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李摧</t>
+  </si>
+  <si>
+    <t>雷薄</t>
+  </si>
+  <si>
+    <t>乐就</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>蒯越</t>
+  </si>
+  <si>
+    <t>蒯良</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>简雍</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>黄祖</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>华歆</t>
+  </si>
+  <si>
+    <t>胡轸</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>何仪</t>
+  </si>
+  <si>
+    <t>韩忠</t>
+  </si>
+  <si>
+    <t>韩胤</t>
+  </si>
+  <si>
+    <t>韩玄</t>
+  </si>
+  <si>
+    <t>韩暹</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>韩嵩</t>
+  </si>
+  <si>
+    <t>韩浩</t>
+  </si>
+  <si>
+    <t>韩馥</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>郭图</t>
+  </si>
+  <si>
+    <t>郭汜</t>
+  </si>
+  <si>
+    <t>管亥</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>关靖</t>
+  </si>
+  <si>
+    <t>龚都</t>
+  </si>
+  <si>
+    <t>公孙越</t>
+  </si>
+  <si>
+    <t>公孙范</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>高升</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>高干</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>傅巽</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>方悦</t>
+  </si>
+  <si>
+    <t>樊稠</t>
+  </si>
+  <si>
+    <t>董昭</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>董旻</t>
+  </si>
+  <si>
+    <t>董和</t>
+  </si>
+  <si>
+    <t>董承</t>
+  </si>
+  <si>
+    <t>丁原</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>邓茂</t>
+  </si>
+  <si>
+    <t>单经</t>
+  </si>
+  <si>
+    <t>崔琰</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>程银</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>成宜</t>
+  </si>
+  <si>
+    <t>陈群</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>陈兰</t>
+  </si>
+  <si>
+    <t>陈纪</t>
+  </si>
+  <si>
+    <t>陈横</t>
+  </si>
+  <si>
+    <t>陈珪</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>车胄</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>曹豹</t>
+  </si>
+  <si>
+    <t>蔡中</t>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+  </si>
+  <si>
+    <t>蔡和</t>
+  </si>
+  <si>
+    <t>卞喜</t>
+  </si>
+  <si>
+    <t>鲍信</t>
+  </si>
+  <si>
+    <t>刘焉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>袁术</t>
+    <t>陶谦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孔融</t>
+    <t>公孙瓒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>刘表</t>
+    <t>马腾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄祖</t>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>何进</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张燕</t>
+    <t>孙坚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丁奉</t>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personTrick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personPolitics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personMilitary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCommand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personBirthYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄祖军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边让军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴景军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宪军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐瑁军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆康军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁原军</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -290,728 +1026,19 @@
   </si>
   <si>
     <t>吴景</t>
+  </si>
+  <si>
+    <t>盛宪</t>
+  </si>
+  <si>
+    <t>唐瑁</t>
+  </si>
+  <si>
+    <t>孔柚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>盛宪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐瑁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上党</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔佑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖茂</t>
-  </si>
-  <si>
-    <t>邹靖</t>
-  </si>
-  <si>
-    <t>邹丹</t>
-  </si>
-  <si>
-    <t>朱治</t>
-  </si>
-  <si>
-    <t>朱儁</t>
-  </si>
-  <si>
-    <t>周昕</t>
-  </si>
-  <si>
-    <t>周仓</t>
-  </si>
-  <si>
-    <t>钟鳐</t>
-  </si>
-  <si>
-    <t>赵云</t>
-  </si>
-  <si>
-    <t>赵弘</t>
-  </si>
-  <si>
-    <t>赵范</t>
-  </si>
-  <si>
-    <t>张昭</t>
-  </si>
-  <si>
-    <t>张允</t>
-  </si>
-  <si>
-    <t>张英</t>
-  </si>
-  <si>
-    <t>张扬</t>
-  </si>
-  <si>
-    <t>张燕</t>
-  </si>
-  <si>
-    <t>张繍</t>
-  </si>
-  <si>
-    <t>张任</t>
-  </si>
-  <si>
-    <t>张邈</t>
-  </si>
-  <si>
-    <t>张鲁</t>
-  </si>
-  <si>
-    <t>张辽</t>
-  </si>
-  <si>
-    <t>张梁</t>
-  </si>
-  <si>
-    <t>张角</t>
-  </si>
-  <si>
-    <t>张济</t>
-  </si>
-  <si>
-    <t>张紘</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>张动</t>
-  </si>
-  <si>
-    <t>张宝</t>
-  </si>
-  <si>
-    <t>笮融</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>袁胤</t>
-  </si>
-  <si>
-    <t>袁遗</t>
-  </si>
-  <si>
-    <t>袁术</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
-    <t>虞翻</t>
-  </si>
-  <si>
-    <t>俞涉</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>伊籍</t>
-  </si>
-  <si>
-    <t>杨怀</t>
-  </si>
-  <si>
-    <t>杨弘</t>
-  </si>
-  <si>
-    <t>杨奉</t>
-  </si>
-  <si>
-    <t>杨丑</t>
-  </si>
-  <si>
-    <t>颜良</t>
-  </si>
-  <si>
-    <t>阎象</t>
-  </si>
-  <si>
-    <t>阎柔</t>
-  </si>
-  <si>
-    <t>阎圃</t>
-  </si>
-  <si>
-    <t>严政</t>
-  </si>
-  <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>严兴</t>
-  </si>
-  <si>
-    <t>严纲</t>
-  </si>
-  <si>
-    <t>严白虎</t>
-  </si>
-  <si>
-    <t>荀攸</t>
-  </si>
-  <si>
-    <t>荀或</t>
-  </si>
-  <si>
-    <t>许攸</t>
-  </si>
-  <si>
-    <t>许靖</t>
-  </si>
-  <si>
-    <t>许贡</t>
-  </si>
-  <si>
-    <t>徐荣</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>盱固</t>
-  </si>
-  <si>
-    <t>辛毗</t>
-  </si>
-  <si>
-    <t>向朗</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>夏侯敦</t>
-  </si>
-  <si>
-    <t>戏志才</t>
-  </si>
-  <si>
-    <t>武安国</t>
-  </si>
-  <si>
-    <t>吴懿</t>
-  </si>
-  <si>
-    <t>吴巨</t>
-  </si>
-  <si>
-    <t>文丑</t>
-  </si>
-  <si>
-    <t>魏攸</t>
-  </si>
-  <si>
-    <t>魏続</t>
-  </si>
-  <si>
-    <t>王忠</t>
-  </si>
-  <si>
-    <t>王允</t>
-  </si>
-  <si>
-    <t>王修</t>
-  </si>
-  <si>
-    <t>王威</t>
-  </si>
-  <si>
-    <t>王門</t>
-  </si>
-  <si>
-    <t>王朗</t>
-  </si>
-  <si>
-    <t>王匡</t>
-  </si>
-  <si>
-    <t>田楷</t>
-  </si>
-  <si>
-    <t>田丰</t>
-  </si>
-  <si>
-    <t>田畴</t>
-  </si>
-  <si>
-    <t>太史慈</t>
-  </si>
-  <si>
-    <t>孙仲</t>
-  </si>
-  <si>
-    <t>孙乾</t>
-  </si>
-  <si>
-    <t>孙静</t>
-  </si>
-  <si>
-    <t>苏由</t>
-  </si>
-  <si>
-    <t>宋憲</t>
-  </si>
-  <si>
-    <t>审配</t>
-  </si>
-  <si>
-    <t>沙摩柯</t>
-  </si>
-  <si>
-    <t>麹义</t>
-  </si>
-  <si>
-    <t>桥瑁</t>
-  </si>
-  <si>
-    <t>裴元绍</t>
-  </si>
-  <si>
-    <t>庞羲</t>
-  </si>
-  <si>
-    <t>潘凤</t>
-  </si>
-  <si>
-    <t>牛辅</t>
-  </si>
-  <si>
-    <t>穆顺</t>
-  </si>
-  <si>
-    <t>糜竺</t>
-  </si>
-  <si>
-    <t>糜芳</t>
-  </si>
-  <si>
-    <t>毛阶</t>
-  </si>
-  <si>
-    <t>吕翔</t>
-  </si>
-  <si>
-    <t>吕威璜</t>
-  </si>
-  <si>
-    <t>吕旷</t>
-  </si>
-  <si>
-    <t>吕范</t>
-  </si>
-  <si>
-    <t>吕岱</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>卢植</t>
-  </si>
-  <si>
-    <t>刘璋</t>
-  </si>
-  <si>
-    <t>刘虞</t>
-  </si>
-  <si>
-    <t>刘鳐</t>
-  </si>
-  <si>
-    <t>刘辟</t>
-  </si>
-  <si>
-    <t>刘馈</t>
-  </si>
-  <si>
-    <t>刘度</t>
-  </si>
-  <si>
-    <t>刘动</t>
-  </si>
-  <si>
-    <t>刘岱</t>
-  </si>
-  <si>
-    <t>刘表</t>
-  </si>
-  <si>
-    <t>凌操</t>
-  </si>
-  <si>
-    <t>梁兴</t>
-  </si>
-  <si>
-    <t>李通</t>
-  </si>
-  <si>
-    <t>李肃</t>
-  </si>
-  <si>
-    <t>李儒</t>
-  </si>
-  <si>
-    <t>李摧</t>
-  </si>
-  <si>
-    <t>雷薄</t>
-  </si>
-  <si>
-    <t>乐就</t>
-  </si>
-  <si>
-    <t>乐进</t>
-  </si>
-  <si>
-    <t>蒯越</t>
-  </si>
-  <si>
-    <t>蒯良</t>
-  </si>
-  <si>
-    <t>孔柚</t>
-  </si>
-  <si>
-    <t>孔融</t>
-  </si>
-  <si>
-    <t>沮授</t>
-  </si>
-  <si>
-    <t>金旋</t>
-  </si>
-  <si>
-    <t>蒋义渠</t>
-  </si>
-  <si>
-    <t>蒋钦</t>
-  </si>
-  <si>
-    <t>简雍</t>
-  </si>
-  <si>
-    <t>贾诩</t>
-  </si>
-  <si>
-    <t>纪灵</t>
-  </si>
-  <si>
-    <t>黄祖</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>黄权</t>
-  </si>
-  <si>
-    <t>黄盖</t>
-  </si>
-  <si>
-    <t>皇甫嵩</t>
-  </si>
-  <si>
-    <t>华雄</t>
-  </si>
-  <si>
-    <t>华歆</t>
-  </si>
-  <si>
-    <t>胡轸</t>
-  </si>
-  <si>
-    <t>侯成</t>
-  </si>
-  <si>
-    <t>何仪</t>
-  </si>
-  <si>
-    <t>韩忠</t>
-  </si>
-  <si>
-    <t>韩胤</t>
-  </si>
-  <si>
-    <t>韩玄</t>
-  </si>
-  <si>
-    <t>韩暹</t>
-  </si>
-  <si>
-    <t>韩遂</t>
-  </si>
-  <si>
-    <t>韩嵩</t>
-  </si>
-  <si>
-    <t>韩浩</t>
-  </si>
-  <si>
-    <t>韩馥</t>
-  </si>
-  <si>
-    <t>韩当</t>
-  </si>
-  <si>
-    <t>郭图</t>
-  </si>
-  <si>
-    <t>郭汜</t>
-  </si>
-  <si>
-    <t>管亥</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>关靖</t>
-  </si>
-  <si>
-    <t>龚都</t>
-  </si>
-  <si>
-    <t>公孙越</t>
-  </si>
-  <si>
-    <t>公孙范</t>
-  </si>
-  <si>
-    <t>公孙度</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>高升</t>
-  </si>
-  <si>
-    <t>高览</t>
-  </si>
-  <si>
-    <t>高干</t>
-  </si>
-  <si>
-    <t>甘宁</t>
-  </si>
-  <si>
-    <t>傅巽</t>
-  </si>
-  <si>
-    <t>逢纪</t>
-  </si>
-  <si>
-    <t>方悦</t>
-  </si>
-  <si>
-    <t>樊稠</t>
-  </si>
-  <si>
-    <t>董昭</t>
-  </si>
-  <si>
-    <t>董袭</t>
-  </si>
-  <si>
-    <t>董旻</t>
-  </si>
-  <si>
-    <t>董和</t>
-  </si>
-  <si>
-    <t>董承</t>
-  </si>
-  <si>
-    <t>丁原</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>邓茂</t>
-  </si>
-  <si>
-    <t>单经</t>
-  </si>
-  <si>
-    <t>崔琰</t>
-  </si>
-  <si>
-    <t>淳于琼</t>
-  </si>
-  <si>
-    <t>程远志</t>
-  </si>
-  <si>
-    <t>程昱</t>
-  </si>
-  <si>
-    <t>程银</t>
-  </si>
-  <si>
-    <t>程普</t>
-  </si>
-  <si>
-    <t>成宜</t>
-  </si>
-  <si>
-    <t>陈群</t>
-  </si>
-  <si>
-    <t>陈琳</t>
-  </si>
-  <si>
-    <t>陈兰</t>
-  </si>
-  <si>
-    <t>陈纪</t>
-  </si>
-  <si>
-    <t>陈横</t>
-  </si>
-  <si>
-    <t>陈珪</t>
-  </si>
-  <si>
-    <t>陈宫</t>
-  </si>
-  <si>
-    <t>陈登</t>
-  </si>
-  <si>
-    <t>车胄</t>
-  </si>
-  <si>
-    <t>曹性</t>
-  </si>
-  <si>
-    <t>曹仁</t>
-  </si>
-  <si>
-    <t>曹洪</t>
-  </si>
-  <si>
-    <t>曹豹</t>
-  </si>
-  <si>
-    <t>蔡中</t>
-  </si>
-  <si>
-    <t>蔡瑁</t>
-  </si>
-  <si>
-    <t>蔡和</t>
-  </si>
-  <si>
-    <t>卞喜</t>
-  </si>
-  <si>
-    <t>鲍信</t>
-  </si>
-  <si>
-    <t>刘焉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-  </si>
-  <si>
-    <t>何进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personLoyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personTrick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personPolitics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personMilitary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCommand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personBirthYear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personID</t>
+    <t>孔柚军</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1387,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3FCDBE-1DB0-4092-8A91-C497901EAC8C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1571,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>285</v>
+      </c>
+      <c r="C11">
+        <v>181</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -1555,7 +1585,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>286</v>
+      </c>
+      <c r="C12">
+        <v>182</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -1566,7 +1599,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>287</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1577,7 +1613,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
       </c>
       <c r="D14">
         <v>31</v>
@@ -1588,7 +1627,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>289</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
       </c>
       <c r="D15">
         <v>26</v>
@@ -1599,7 +1641,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>290</v>
+      </c>
+      <c r="C16">
+        <v>199</v>
       </c>
       <c r="D16">
         <v>22</v>
@@ -1610,7 +1655,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>298</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
       </c>
       <c r="D17">
         <v>23</v>
@@ -1621,7 +1669,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>291</v>
+      </c>
+      <c r="C18">
+        <v>215</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1632,7 +1683,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>292</v>
+      </c>
+      <c r="C19">
+        <v>216</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -1643,7 +1697,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>293</v>
+      </c>
+      <c r="C20">
+        <v>217</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1654,7 +1711,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>294</v>
+      </c>
+      <c r="C21">
+        <v>218</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1665,7 +1725,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>295</v>
+      </c>
+      <c r="C22">
+        <v>219</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1676,7 +1739,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>296</v>
+      </c>
+      <c r="C23">
+        <v>220</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1687,7 +1753,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>297</v>
+      </c>
+      <c r="C24">
+        <v>104</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -1698,7 +1767,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>304</v>
+      </c>
+      <c r="C25">
+        <v>89</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1835,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -2443,7 +2515,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2900,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5109D5-EC72-404A-B13C-855F4594F600}">
-  <dimension ref="A1:K215"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="O213" sqref="O213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2923,34 +2995,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2958,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -2989,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3020,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3051,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3082,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3113,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -3144,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3175,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3206,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3237,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3259,7 +3331,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -3268,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3290,7 +3362,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -3299,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3321,7 +3393,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -3330,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3352,7 +3424,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -3361,7 +3433,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3383,7 +3455,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -3392,7 +3464,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3414,7 +3486,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -3423,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3445,7 +3517,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -3454,7 +3526,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3476,7 +3548,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -3485,7 +3557,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3507,7 +3579,7 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -3516,7 +3588,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -3538,7 +3610,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -3547,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -3569,7 +3641,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -3578,7 +3650,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -3600,7 +3672,7 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -3609,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -3631,7 +3703,7 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -3640,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -3662,7 +3734,7 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -3671,7 +3743,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -3693,7 +3765,7 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3"/>
     </row>
@@ -3702,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -3724,7 +3796,7 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -3733,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -3755,7 +3827,7 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -3764,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -3786,7 +3858,7 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -3795,7 +3867,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -3817,7 +3889,7 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -3826,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -3848,7 +3920,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -3857,7 +3929,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -3879,7 +3951,7 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3"/>
     </row>
@@ -3888,7 +3960,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -3910,7 +3982,7 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -3919,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -3941,7 +4013,7 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -3950,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -3972,7 +4044,7 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -3981,7 +4053,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4003,7 +4075,7 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -4012,7 +4084,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4034,7 +4106,7 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -4043,7 +4115,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4065,7 +4137,7 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -4074,7 +4146,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4096,7 +4168,7 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K38" s="3"/>
     </row>
@@ -4105,7 +4177,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4127,7 +4199,7 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -4136,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4158,7 +4230,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -4167,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4189,7 +4261,7 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -4198,7 +4270,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4220,7 +4292,7 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -4229,7 +4301,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4251,7 +4323,7 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -4260,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4282,7 +4354,7 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -4291,7 +4363,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4313,7 +4385,7 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -4322,7 +4394,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4344,7 +4416,7 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -4353,7 +4425,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4375,7 +4447,7 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -4384,7 +4456,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4406,7 +4478,7 @@
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -4415,7 +4487,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4437,7 +4509,7 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -4446,7 +4518,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4468,7 +4540,7 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K50" s="3"/>
     </row>
@@ -4477,7 +4549,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4499,7 +4571,7 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K51" s="3"/>
     </row>
@@ -4508,7 +4580,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -4530,7 +4602,7 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -4539,7 +4611,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -4561,7 +4633,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K53" s="3"/>
     </row>
@@ -4570,7 +4642,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -4592,7 +4664,7 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -4601,7 +4673,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4623,7 +4695,7 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K55" s="3"/>
     </row>
@@ -4632,7 +4704,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -4654,7 +4726,7 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K56" s="3"/>
     </row>
@@ -4663,7 +4735,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -4685,7 +4757,7 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -4694,7 +4766,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -4716,7 +4788,7 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -4725,7 +4797,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -4747,7 +4819,7 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -4756,7 +4828,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -4778,7 +4850,7 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -4787,7 +4859,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -4809,7 +4881,7 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -4818,7 +4890,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -4840,7 +4912,7 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -4849,7 +4921,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -4871,7 +4943,7 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K63" s="3"/>
     </row>
@@ -4880,7 +4952,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -4902,7 +4974,7 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -4911,7 +4983,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -4933,7 +5005,7 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3"/>
     </row>
@@ -4942,7 +5014,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -4964,7 +5036,7 @@
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -4973,7 +5045,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -4995,7 +5067,7 @@
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K67" s="3"/>
     </row>
@@ -5004,7 +5076,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5026,7 +5098,7 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -5035,7 +5107,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5057,7 +5129,7 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K69" s="3"/>
     </row>
@@ -5066,7 +5138,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5088,7 +5160,7 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K70" s="3"/>
     </row>
@@ -5097,7 +5169,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5119,7 +5191,7 @@
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3"/>
     </row>
@@ -5128,7 +5200,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5150,7 +5222,7 @@
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -5159,7 +5231,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5181,7 +5253,7 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K73" s="3"/>
     </row>
@@ -5190,7 +5262,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5212,7 +5284,7 @@
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K74" s="3"/>
     </row>
@@ -5221,7 +5293,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5243,7 +5315,7 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K75" s="3"/>
     </row>
@@ -5252,7 +5324,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5274,7 +5346,7 @@
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -5283,7 +5355,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5305,7 +5377,7 @@
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K77" s="3"/>
     </row>
@@ -5314,7 +5386,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5336,7 +5408,7 @@
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K78" s="3"/>
     </row>
@@ -5345,7 +5417,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5367,7 +5439,7 @@
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K79" s="3"/>
     </row>
@@ -5376,7 +5448,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5398,7 +5470,7 @@
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K80" s="3"/>
     </row>
@@ -5407,7 +5479,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5429,7 +5501,7 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -5438,7 +5510,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5460,7 +5532,7 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K82" s="3"/>
     </row>
@@ -5469,7 +5541,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5491,7 +5563,7 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -5500,7 +5572,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5522,7 +5594,7 @@
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K84" s="3"/>
     </row>
@@ -5531,7 +5603,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -5553,7 +5625,7 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3"/>
     </row>
@@ -5562,7 +5634,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -5584,7 +5656,7 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3"/>
     </row>
@@ -5593,7 +5665,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -5615,7 +5687,7 @@
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K87" s="3"/>
     </row>
@@ -5624,7 +5696,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -5646,7 +5718,7 @@
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K88" s="3"/>
     </row>
@@ -5655,7 +5727,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -5677,7 +5749,7 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -5686,7 +5758,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -5708,7 +5780,7 @@
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K90" s="3"/>
     </row>
@@ -5717,7 +5789,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -5739,7 +5811,7 @@
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -5748,7 +5820,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -5770,7 +5842,7 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K92" s="3"/>
     </row>
@@ -5779,7 +5851,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -5801,7 +5873,7 @@
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K93" s="3"/>
     </row>
@@ -5810,7 +5882,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -5832,7 +5904,7 @@
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -5841,7 +5913,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -5863,7 +5935,7 @@
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K95" s="3"/>
     </row>
@@ -5872,7 +5944,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -5894,7 +5966,7 @@
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -5903,7 +5975,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -5925,7 +5997,7 @@
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K97" s="3"/>
     </row>
@@ -5934,7 +6006,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -5956,7 +6028,7 @@
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K98" s="3"/>
     </row>
@@ -5965,7 +6037,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -5987,7 +6059,7 @@
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K99" s="3"/>
     </row>
@@ -5996,7 +6068,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6018,7 +6090,7 @@
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -6027,7 +6099,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6049,7 +6121,7 @@
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -6058,7 +6130,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6080,7 +6152,7 @@
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K102" s="3"/>
     </row>
@@ -6089,7 +6161,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6111,7 +6183,7 @@
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K103" s="3"/>
     </row>
@@ -6120,7 +6192,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6142,7 +6214,7 @@
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K104" s="3"/>
     </row>
@@ -6151,7 +6223,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6173,7 +6245,7 @@
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K105" s="3"/>
     </row>
@@ -6182,7 +6254,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6204,7 +6276,7 @@
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K106" s="3"/>
     </row>
@@ -6213,7 +6285,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6235,7 +6307,7 @@
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K107" s="3"/>
     </row>
@@ -6244,7 +6316,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6266,7 +6338,7 @@
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K108" s="3"/>
     </row>
@@ -6275,7 +6347,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6297,7 +6369,7 @@
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K109" s="3"/>
     </row>
@@ -6306,7 +6378,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6328,7 +6400,7 @@
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K110" s="3"/>
     </row>
@@ -6337,7 +6409,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6359,7 +6431,7 @@
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K111" s="3"/>
     </row>
@@ -6368,7 +6440,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6390,7 +6462,7 @@
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K112" s="3"/>
     </row>
@@ -6399,7 +6471,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6421,7 +6493,7 @@
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K113" s="3"/>
     </row>
@@ -6430,7 +6502,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6452,7 +6524,7 @@
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K114" s="3"/>
     </row>
@@ -6461,7 +6533,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6483,7 +6555,7 @@
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K115" s="3"/>
     </row>
@@ -6492,7 +6564,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6514,7 +6586,7 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K116" s="3"/>
     </row>
@@ -6523,7 +6595,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -6545,7 +6617,7 @@
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K117" s="3"/>
     </row>
@@ -6554,7 +6626,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -6576,7 +6648,7 @@
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K118" s="3"/>
     </row>
@@ -6585,7 +6657,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -6607,7 +6679,7 @@
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K119" s="3"/>
     </row>
@@ -6616,7 +6688,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -6638,7 +6710,7 @@
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K120" s="3"/>
     </row>
@@ -6647,7 +6719,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -6669,7 +6741,7 @@
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K121" s="3"/>
     </row>
@@ -6678,7 +6750,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -6700,7 +6772,7 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K122" s="3"/>
     </row>
@@ -6709,7 +6781,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -6731,7 +6803,7 @@
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K123" s="3"/>
     </row>
@@ -6740,7 +6812,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -6762,7 +6834,7 @@
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K124" s="3"/>
     </row>
@@ -6771,7 +6843,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -6793,7 +6865,7 @@
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K125" s="3"/>
     </row>
@@ -6802,7 +6874,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -6824,7 +6896,7 @@
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K126" s="3"/>
     </row>
@@ -6833,7 +6905,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -6855,7 +6927,7 @@
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K127" s="3"/>
     </row>
@@ -6864,7 +6936,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -6886,7 +6958,7 @@
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K128" s="3"/>
     </row>
@@ -6895,7 +6967,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -6917,7 +6989,7 @@
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K129" s="3"/>
     </row>
@@ -6926,7 +6998,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -6948,7 +7020,7 @@
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K130" s="3"/>
     </row>
@@ -6957,7 +7029,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -6979,7 +7051,7 @@
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K131" s="3"/>
     </row>
@@ -6988,7 +7060,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7010,7 +7082,7 @@
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K132" s="3"/>
     </row>
@@ -7019,7 +7091,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7041,7 +7113,7 @@
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K133" s="3"/>
     </row>
@@ -7050,7 +7122,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7072,7 +7144,7 @@
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K134" s="3"/>
     </row>
@@ -7081,7 +7153,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7103,7 +7175,7 @@
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K135" s="3"/>
     </row>
@@ -7112,7 +7184,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7134,7 +7206,7 @@
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K136" s="3"/>
     </row>
@@ -7143,7 +7215,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7165,7 +7237,7 @@
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K137" s="3"/>
     </row>
@@ -7174,7 +7246,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7196,7 +7268,7 @@
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K138" s="3"/>
     </row>
@@ -7205,7 +7277,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7227,7 +7299,7 @@
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K139" s="3"/>
     </row>
@@ -7236,7 +7308,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7258,7 +7330,7 @@
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K140" s="3"/>
     </row>
@@ -7267,7 +7339,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7289,7 +7361,7 @@
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K141" s="3"/>
     </row>
@@ -7298,7 +7370,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7320,7 +7392,7 @@
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K142" s="3"/>
     </row>
@@ -7329,7 +7401,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7351,7 +7423,7 @@
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K143" s="3"/>
     </row>
@@ -7360,7 +7432,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7382,7 +7454,7 @@
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K144" s="3"/>
     </row>
@@ -7391,7 +7463,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7413,7 +7485,7 @@
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K145" s="3"/>
     </row>
@@ -7422,7 +7494,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7444,7 +7516,7 @@
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K146" s="3"/>
     </row>
@@ -7453,7 +7525,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7475,7 +7547,7 @@
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K147" s="3"/>
     </row>
@@ -7484,7 +7556,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7506,7 +7578,7 @@
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K148" s="3"/>
     </row>
@@ -7515,7 +7587,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -7537,7 +7609,7 @@
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K149" s="3"/>
     </row>
@@ -7546,7 +7618,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -7568,7 +7640,7 @@
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K150" s="3"/>
     </row>
@@ -7577,7 +7649,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -7599,7 +7671,7 @@
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K151" s="3"/>
     </row>
@@ -7608,7 +7680,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -7630,7 +7702,7 @@
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K152" s="3"/>
     </row>
@@ -7639,7 +7711,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -7661,7 +7733,7 @@
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K153" s="3"/>
     </row>
@@ -7670,7 +7742,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7692,7 +7764,7 @@
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K154" s="3"/>
     </row>
@@ -7701,7 +7773,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -7723,7 +7795,7 @@
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K155" s="3"/>
     </row>
@@ -7732,7 +7804,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -7754,7 +7826,7 @@
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K156" s="3"/>
     </row>
@@ -7763,7 +7835,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -7785,7 +7857,7 @@
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K157" s="3"/>
     </row>
@@ -7794,7 +7866,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -7816,7 +7888,7 @@
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K158" s="3"/>
     </row>
@@ -7825,7 +7897,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -7847,7 +7919,7 @@
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K159" s="3"/>
     </row>
@@ -7856,7 +7928,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -7878,7 +7950,7 @@
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K160" s="3"/>
     </row>
@@ -7887,7 +7959,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -7909,7 +7981,7 @@
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K161" s="3"/>
     </row>
@@ -7918,7 +7990,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -7940,7 +8012,7 @@
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K162" s="3"/>
     </row>
@@ -7949,7 +8021,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -7971,7 +8043,7 @@
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K163" s="3"/>
     </row>
@@ -7980,7 +8052,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -8002,7 +8074,7 @@
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K164" s="3"/>
     </row>
@@ -8011,7 +8083,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -8033,7 +8105,7 @@
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K165" s="3"/>
     </row>
@@ -8042,7 +8114,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -8064,7 +8136,7 @@
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K166" s="3"/>
     </row>
@@ -8073,7 +8145,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -8095,7 +8167,7 @@
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K167" s="3"/>
     </row>
@@ -8104,7 +8176,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -8126,7 +8198,7 @@
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K168" s="3"/>
     </row>
@@ -8135,7 +8207,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -8157,7 +8229,7 @@
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K169" s="3"/>
     </row>
@@ -8166,7 +8238,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -8188,7 +8260,7 @@
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K170" s="3"/>
     </row>
@@ -8197,7 +8269,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -8219,7 +8291,7 @@
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K171" s="3"/>
     </row>
@@ -8228,7 +8300,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -8250,7 +8322,7 @@
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K172" s="3"/>
     </row>
@@ -8259,7 +8331,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -8281,7 +8353,7 @@
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K173" s="3"/>
     </row>
@@ -8290,7 +8362,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -8312,7 +8384,7 @@
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K174" s="3"/>
     </row>
@@ -8321,7 +8393,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -8343,7 +8415,7 @@
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K175" s="3"/>
     </row>
@@ -8352,7 +8424,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -8374,7 +8446,7 @@
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K176" s="3"/>
     </row>
@@ -8383,7 +8455,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -8405,7 +8477,7 @@
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K177" s="3"/>
     </row>
@@ -8414,7 +8486,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -8436,7 +8508,7 @@
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K178" s="3"/>
     </row>
@@ -8445,7 +8517,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -8467,7 +8539,7 @@
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K179" s="3"/>
     </row>
@@ -8476,7 +8548,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -8498,7 +8570,7 @@
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K180" s="3"/>
     </row>
@@ -8507,7 +8579,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -8529,7 +8601,7 @@
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K181" s="3"/>
     </row>
@@ -8538,7 +8610,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -8560,7 +8632,7 @@
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K182" s="3"/>
     </row>
@@ -8569,7 +8641,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -8591,7 +8663,7 @@
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K183" s="3"/>
     </row>
@@ -8600,7 +8672,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -8622,7 +8694,7 @@
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K184" s="3"/>
     </row>
@@ -8631,7 +8703,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -8653,7 +8725,7 @@
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K185" s="3"/>
     </row>
@@ -8662,7 +8734,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -8684,7 +8756,7 @@
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K186" s="3"/>
     </row>
@@ -8693,7 +8765,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -8715,7 +8787,7 @@
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K187" s="3"/>
     </row>
@@ -8724,7 +8796,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -8746,7 +8818,7 @@
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K188" s="3"/>
     </row>
@@ -8755,7 +8827,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -8777,7 +8849,7 @@
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K189" s="3"/>
     </row>
@@ -8786,7 +8858,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -8808,7 +8880,7 @@
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K190" s="3"/>
     </row>
@@ -8817,7 +8889,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -8839,7 +8911,7 @@
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K191" s="3"/>
     </row>
@@ -8848,7 +8920,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -8870,7 +8942,7 @@
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K192" s="3"/>
     </row>
@@ -8879,7 +8951,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -8901,7 +8973,7 @@
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K193" s="3"/>
     </row>
@@ -8910,7 +8982,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -8932,7 +9004,7 @@
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K194" s="3"/>
     </row>
@@ -8941,7 +9013,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -8963,7 +9035,7 @@
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K195" s="3"/>
     </row>
@@ -8972,7 +9044,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -8994,7 +9066,7 @@
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K196" s="3"/>
     </row>
@@ -9003,7 +9075,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -9025,7 +9097,7 @@
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K197" s="3"/>
     </row>
@@ -9034,7 +9106,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -9056,7 +9128,7 @@
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K198" s="3"/>
     </row>
@@ -9065,7 +9137,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -9087,7 +9159,7 @@
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K199" s="3"/>
     </row>
@@ -9096,7 +9168,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -9118,7 +9190,7 @@
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K200" s="3"/>
     </row>
@@ -9127,7 +9199,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -9149,7 +9221,7 @@
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K201" s="3"/>
     </row>
@@ -9158,7 +9230,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -9180,7 +9252,7 @@
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K202" s="3"/>
     </row>
@@ -9189,7 +9261,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -9211,7 +9283,7 @@
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K203" s="3"/>
     </row>
@@ -9220,7 +9292,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -9242,7 +9314,7 @@
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K204" s="3"/>
     </row>
@@ -9251,7 +9323,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -9273,7 +9345,7 @@
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K205" s="3"/>
     </row>
@@ -9282,7 +9354,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -9304,7 +9376,7 @@
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K206" s="3"/>
     </row>
@@ -9313,7 +9385,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -9335,7 +9407,7 @@
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K207" s="3"/>
     </row>
@@ -9344,7 +9416,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -9366,7 +9438,7 @@
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K208" s="3"/>
     </row>
@@ -9375,7 +9447,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -9397,7 +9469,7 @@
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K209" s="3"/>
     </row>
@@ -9406,7 +9478,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -9428,7 +9500,7 @@
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K210" s="3"/>
     </row>
@@ -9437,7 +9509,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -9459,7 +9531,7 @@
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K211" s="3"/>
     </row>
@@ -9468,7 +9540,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -9490,7 +9562,7 @@
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K212" s="3"/>
     </row>
@@ -9499,7 +9571,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -9521,7 +9593,7 @@
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K213" s="3"/>
     </row>
@@ -9530,7 +9602,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -9552,7 +9624,7 @@
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K214" s="3"/>
     </row>
@@ -9561,7 +9633,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C215">
         <v>155</v>
@@ -9583,11 +9655,226 @@
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K215" s="3"/>
     </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>299</v>
+      </c>
+      <c r="C216">
+        <v>140</v>
+      </c>
+      <c r="D216" s="2">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2">
+        <v>6</v>
+      </c>
+      <c r="F216" s="2">
+        <v>6</v>
+      </c>
+      <c r="G216" s="2">
+        <v>6</v>
+      </c>
+      <c r="H216" s="3">
+        <v>10</v>
+      </c>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>300</v>
+      </c>
+      <c r="C217">
+        <v>144</v>
+      </c>
+      <c r="D217" s="2">
+        <v>6</v>
+      </c>
+      <c r="E217" s="2">
+        <v>6</v>
+      </c>
+      <c r="F217" s="2">
+        <v>6</v>
+      </c>
+      <c r="G217" s="2">
+        <v>6</v>
+      </c>
+      <c r="H217" s="3">
+        <v>10</v>
+      </c>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>301</v>
+      </c>
+      <c r="C218">
+        <v>147</v>
+      </c>
+      <c r="D218" s="2">
+        <v>6</v>
+      </c>
+      <c r="E218" s="2">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2">
+        <v>6</v>
+      </c>
+      <c r="G218" s="2">
+        <v>6</v>
+      </c>
+      <c r="H218" s="3">
+        <v>10</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>302</v>
+      </c>
+      <c r="C219">
+        <v>150</v>
+      </c>
+      <c r="D219" s="2">
+        <v>6</v>
+      </c>
+      <c r="E219" s="2">
+        <v>6</v>
+      </c>
+      <c r="F219" s="2">
+        <v>6</v>
+      </c>
+      <c r="G219" s="2">
+        <v>6</v>
+      </c>
+      <c r="H219" s="3">
+        <v>10</v>
+      </c>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220">
+        <v>140</v>
+      </c>
+      <c r="D220" s="2">
+        <v>6</v>
+      </c>
+      <c r="E220" s="2">
+        <v>6</v>
+      </c>
+      <c r="F220" s="2">
+        <v>6</v>
+      </c>
+      <c r="G220" s="2">
+        <v>6</v>
+      </c>
+      <c r="H220" s="3">
+        <v>10</v>
+      </c>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+      <c r="C221">
+        <v>144</v>
+      </c>
+      <c r="D221" s="2">
+        <v>6</v>
+      </c>
+      <c r="E221" s="2">
+        <v>6</v>
+      </c>
+      <c r="F221" s="2">
+        <v>6</v>
+      </c>
+      <c r="G221" s="2">
+        <v>6</v>
+      </c>
+      <c r="H221" s="3">
+        <v>10</v>
+      </c>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>61</v>
+      </c>
+      <c r="C222">
+        <v>147</v>
+      </c>
+      <c r="D222" s="2">
+        <v>6</v>
+      </c>
+      <c r="E222" s="2">
+        <v>6</v>
+      </c>
+      <c r="F222" s="2">
+        <v>6</v>
+      </c>
+      <c r="G222" s="2">
+        <v>6</v>
+      </c>
+      <c r="H222" s="3">
+        <v>10</v>
+      </c>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K219" xr:uid="{129DA07B-54B9-4C6A-A407-38F42E19F26C}">
+    <sortState ref="A2:K216">
+      <sortCondition ref="A1:A216"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/数据库设计/中原剧本.xlsx
+++ b/code/数据库设计/中原剧本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC66D0-D5E5-409C-97EA-80E195A67217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1ADB3-DEE3-4194-80FF-1FE987CA609E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1039,6 +1039,130 @@
   </si>
   <si>
     <t>孔柚军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,32,29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,28,26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,29,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,23,20,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,14,24,19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,19,25,27,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,22,17,20,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,23,17,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,27,24,9,23,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,24,25,9,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,23,17,8,13,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,23,20,18,13,6,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,12,6,13,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,14,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,19,15,11,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,16,8,7,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,15,3,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,14,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,10,20,8,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,18,9,7,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,13,8,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,12,17,16,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,11,2,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10,1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1124,13 +1248,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1788,7 +1915,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1799,8 +1926,8 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1866,8 +1993,8 @@
       <c r="I2">
         <v>60</v>
       </c>
-      <c r="K2">
-        <v>4</v>
+      <c r="K2" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,8 +2025,8 @@
       <c r="I3">
         <v>60</v>
       </c>
-      <c r="K3">
-        <v>4</v>
+      <c r="K3" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1930,8 +2057,8 @@
       <c r="I4">
         <v>60</v>
       </c>
-      <c r="K4">
-        <v>4</v>
+      <c r="K4" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1962,8 +2089,8 @@
       <c r="I5">
         <v>60</v>
       </c>
-      <c r="K5">
-        <v>4</v>
+      <c r="K5" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,8 +2153,8 @@
       <c r="I7">
         <v>60</v>
       </c>
-      <c r="K7">
-        <v>4</v>
+      <c r="K7" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,8 +2185,8 @@
       <c r="I8">
         <v>60</v>
       </c>
-      <c r="K8">
-        <v>4</v>
+      <c r="K8" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,8 +2217,8 @@
       <c r="I9">
         <v>60</v>
       </c>
-      <c r="K9">
-        <v>4</v>
+      <c r="K9" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,8 +2249,8 @@
       <c r="I10">
         <v>60</v>
       </c>
-      <c r="K10">
-        <v>4</v>
+      <c r="K10" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,8 +2281,8 @@
       <c r="I11">
         <v>60</v>
       </c>
-      <c r="K11">
-        <v>4</v>
+      <c r="K11" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2186,8 +2313,8 @@
       <c r="I12">
         <v>60</v>
       </c>
-      <c r="K12">
-        <v>4</v>
+      <c r="K12" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2218,8 +2345,8 @@
       <c r="I13">
         <v>60</v>
       </c>
-      <c r="K13">
-        <v>4</v>
+      <c r="K13" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2250,8 +2377,8 @@
       <c r="I14">
         <v>60</v>
       </c>
-      <c r="K14">
-        <v>4</v>
+      <c r="K14" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,8 +2409,8 @@
       <c r="I15">
         <v>60</v>
       </c>
-      <c r="K15">
-        <v>4</v>
+      <c r="K15" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2314,8 +2441,8 @@
       <c r="I16">
         <v>60</v>
       </c>
-      <c r="K16">
-        <v>4</v>
+      <c r="K16" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,8 +2473,8 @@
       <c r="I17">
         <v>60</v>
       </c>
-      <c r="K17">
-        <v>4</v>
+      <c r="K17" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2378,8 +2505,8 @@
       <c r="I18">
         <v>60</v>
       </c>
-      <c r="K18">
-        <v>4</v>
+      <c r="K18" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2410,8 +2537,8 @@
       <c r="I19">
         <v>60</v>
       </c>
-      <c r="K19">
-        <v>4</v>
+      <c r="K19" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,8 +2569,8 @@
       <c r="I20">
         <v>60</v>
       </c>
-      <c r="K20">
-        <v>4</v>
+      <c r="K20" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,8 +2601,8 @@
       <c r="I21">
         <v>60</v>
       </c>
-      <c r="K21">
-        <v>4</v>
+      <c r="K21" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2506,8 +2633,8 @@
       <c r="I22">
         <v>60</v>
       </c>
-      <c r="K22">
-        <v>4</v>
+      <c r="K22" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,8 +2665,8 @@
       <c r="I23">
         <v>60</v>
       </c>
-      <c r="K23">
-        <v>4</v>
+      <c r="K23" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2570,8 +2697,8 @@
       <c r="I24">
         <v>60</v>
       </c>
-      <c r="K24">
-        <v>4</v>
+      <c r="K24" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,8 +2729,8 @@
       <c r="I25">
         <v>60</v>
       </c>
-      <c r="K25">
-        <v>4</v>
+      <c r="K25" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2634,8 +2761,8 @@
       <c r="I26">
         <v>60</v>
       </c>
-      <c r="K26">
-        <v>4</v>
+      <c r="K26" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2666,8 +2793,8 @@
       <c r="I27">
         <v>60</v>
       </c>
-      <c r="K27">
-        <v>4</v>
+      <c r="K27" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2698,8 +2825,8 @@
       <c r="I28">
         <v>60</v>
       </c>
-      <c r="K28">
-        <v>4</v>
+      <c r="K28" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,8 +2857,8 @@
       <c r="I29">
         <v>60</v>
       </c>
-      <c r="K29">
-        <v>4</v>
+      <c r="K29" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2762,8 +2889,8 @@
       <c r="I30">
         <v>60</v>
       </c>
-      <c r="K30">
-        <v>4</v>
+      <c r="K30" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,8 +2921,8 @@
       <c r="I31">
         <v>60</v>
       </c>
-      <c r="K31">
-        <v>4</v>
+      <c r="K31" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,8 +2953,8 @@
       <c r="I32">
         <v>60</v>
       </c>
-      <c r="K32">
-        <v>4</v>
+      <c r="K32" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2858,8 +2985,8 @@
       <c r="I33">
         <v>60</v>
       </c>
-      <c r="K33">
-        <v>4</v>
+      <c r="K33" s="4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,7 +3018,7 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,7 +3050,7 @@
         <v>60</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2955,7 +3082,7 @@
         <v>60</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
